--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,6 +384,556 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sonya Bernstein</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NYC Health + Hospitals</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chiquita Brooks-LaSure</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Manatt, Phelps and Phillips, LLP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elizabeth Cameron</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nuclear Threat Initiative</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert Gordon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David Kessler</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>University of California, San Francisco</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vivek Murthy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marcella Nunez-Smith</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yale University</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jeff Zients</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The Cranemere Group</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jim Brown</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sonya Bernstein</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NYC Health + Hospitals</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elizabeth Cameron</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nuclear Threat Initiative</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rebecca Katz</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Georgetown University</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tim Manning</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Julie Morgan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Roosevelt Institute</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sonya Bernstein</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NYC Health + Hospitals</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chiquita Brooks-LaSure</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Manatt, Phelps and Phillips, LLP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Elizabeth Cameron</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nuclear Threat Initiative</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Asha M. George</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bipartisan Commission on Biodefense</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Robert Gordon</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>David Kessler</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>University of California, San Francisco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vivek Murthy</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Marcella Nunez-Smith</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yale University</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jeff Zients</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The Cranemere Group</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Department of Housing and Urban Development</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jonathan Parnes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Transition — Appropriation</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Department of Transportation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lucinda Lessley</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Transition — Appropriation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,12 +375,482 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>on_multiple_teams</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>most_recent_employment</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>source_of_funding</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arts and Humanities</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lynnette Overby</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>University of Delaware</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Consumer Financial Protection Bureau</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Josh Zoffer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cove Hill Partners</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jim Brown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department of Energy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David Kieve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BFPCC, Inc.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah Bianchi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Evercore ISI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mark Greenberg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Migration Policy Institute</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sherice Perry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Andrew Nacin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chan Zuckerberg Initiative</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Deon Scott</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Google, LLC</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Department of Housing and Urban Development</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PaaWee Rivera</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Esmeralda Aguilar</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sherman Dunn, P.C.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eric Seleznow</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Jobs for the Future, Inc.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zaid Zaid</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Facebook, Inc.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Department of Veterans Affairs</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chris Diaz</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PA Democratic Party</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Environmental Protection Agency</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Eric Salcedo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Democratic National Committee — Coordinated Campaign</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Intelligence Community</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rachel Lieber</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Facebook, Inc.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>International Development</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cristina Killingsworth</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WestExec Advisors</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>International Development</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fouad Saad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>International Development</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zaid Zaid</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Facebook, Inc.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Small Business Administration</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Christopher Upperman</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Facebook, Inc.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +389,77 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jim Brown</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Natalie Quillian</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BFPCC, Inc.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Intelligence Community</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeohn Salone Favors</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,77 +389,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Department of Education</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jim Brown</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Department of Health and Human Services</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Natalie Quillian</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BFPCC, Inc.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Intelligence Community</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jeohn Salone Favors</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +389,324 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Elizabeth Bhargava</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Democratic National Committee</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ted Dean</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dropbox</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Riley Ohlson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alliance for American Manufacturing</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kate Wolff</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>George Washington University</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ronald Davis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21CP Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roosevelt Holmes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gina Kline</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Brown, Goldstein &amp; Levy, LLP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rachel Rossi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>REFORM Alliance</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Executive Office of the President, Management and Administration</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faisal Amin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>U.S. Government Accountability Office</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>National Security Council</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jasmine Wyatt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>U.S. Senate Foreign Relations Committee</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transition — Appropriation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Office of Personnel Management</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cathie McQuiston</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>American Federation of Government Employees, AFL-CIO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Small Business Administration</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Laura Jimenez</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>United States Mission to the United Nations</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Marco Sanchez</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>United Nations Foundation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>United States Postal Service</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mat Hernandez</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Boston Consulting Group</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,324 +389,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Department of Commerce</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Elizabeth Bhargava</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Democratic National Committee</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Department of Commerce</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ted Dean</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Dropbox</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Department of Commerce</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Riley Ohlson</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Alliance for American Manufacturing</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Department of Health and Human Services</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kate Wolff</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>George Washington University</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Department of Homeland Security</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ronald Davis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21CP Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Department of Justice</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Roosevelt Holmes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Biden for President</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Department of Justice</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gina Kline</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Brown, Goldstein &amp; Levy, LLP</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Department of Justice</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rachel Rossi</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>REFORM Alliance</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Executive Office of the President, Management and Administration</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Faisal Amin</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>U.S. Government Accountability Office</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>National Security Council</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jasmine Wyatt</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>U.S. Senate Foreign Relations Committee</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Transition — Appropriation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Office of Personnel Management</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Cathie McQuiston</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>American Federation of Government Employees, AFL-CIO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Small Business Administration</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Laura Jimenez</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Biden for President</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>United States Mission to the United Nations</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Marco Sanchez</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>United Nations Foundation</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>United States Postal Service</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mat Hernandez</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Boston Consulting Group</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +389,160 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jim Brown</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Roosevelt Holmes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Democratic National Committee</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Regina “Gina” Kline</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Smartjob LLC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uzra Zeya</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alliance for Peacebuilding</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Executive Office of the President, Management and Administration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthony Bernal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>International Development</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Angelique Crumbly</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>United Nations Development Program</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>National Security Council</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monica Maher</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Goldman Sachs &amp; Co.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,160 +389,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Department of Education</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jim Brown</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Department of Justice</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Roosevelt Holmes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Democratic National Committee</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Department of Justice</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Regina “Gina” Kline</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Smartjob LLC</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Department of State</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Uzra Zeya</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Alliance for Peacebuilding</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Executive Office of the President, Management and Administration</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anthony Bernal</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biden for President</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>International Development</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Angelique Crumbly</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>United Nations Development Program</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>National Security Council</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Monica Maher</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Goldman Sachs &amp; Co.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +389,270 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arts and Humanities</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adriana Usmayo Macedonio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>New Hampshire Democratic Party</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Council on Environmental Quality</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mayela Morales</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Michigan Democratic Party</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aparna Paladugu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Via Transportation, Inc</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tony Allen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Delaware State University</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jim Brown</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ajita Menon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Calbright College</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mikayla Ferrell</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pennsylvania Democratic Party</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dylan George</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>In-Q-Tel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Caitlin Rivers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Johns Hopkins University</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Department of Veterans Affairs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Asna Ashfaq</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Democratic Party of Georgia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Federal Communications Commission</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christiana Ho</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Florida Democratic Party</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>United States Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Damian Richardson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Democratic Party of Wisconsin</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,17 +392,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts and Humanities</t>
+          <t>Department of Energy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adriana Usmayo Macedonio</t>
+          <t>Caroline Grey</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Hampshire Democratic Party</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -414,17 +414,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Council on Environmental Quality</t>
+          <t>Department of Health and Human Services</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mayela Morales</t>
+          <t>Clara Pratte</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Michigan Democratic Party</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -436,105 +441,105 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Department of Commerce</t>
+          <t>Department of Housing and Urban Development</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aparna Paladugu</t>
+          <t>Analysse Escobar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Via Transportation, Inc</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Department of Education</t>
+          <t>Department of Housing and Urban Development</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tony Allen</t>
+          <t>Mikayla Ferrell</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Delaware State University</t>
+          <t>Pennsylvania Democratic Party</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Department of Education</t>
+          <t>Department of Justice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jim Brown</t>
+          <t>Theresa Bradley</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Department of Education</t>
+          <t>Department of the Interior</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ajita Menon</t>
+          <t>Maggie Thompson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Calbright College</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Department of Health and Human Services</t>
+          <t>Department of the Treasury</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mikayla Ferrell</t>
+          <t>William Doerrer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pennsylvania Democratic Party</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -546,108 +551,86 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Department of Health and Human Services</t>
+          <t>Department of Transportation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dylan George</t>
+          <t>Allie Panther</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>In-Q-Tel</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Department of Health and Human Services</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Caitlin Rivers</t>
+          <t>Sinceré Harris</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Johns Hopkins University</t>
+          <t>Pennsylvania Democratic Party</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Department of Veterans Affairs</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Asna Ashfaq</t>
+          <t>Jason Tengco</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Democratic Party of Georgia</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>United States Department of Agriculture</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Christiana Ho</t>
+          <t>Lexi Coburn</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Florida Democratic Party</t>
+          <t>North Carolina Democratic Party</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>United States Department of Agriculture</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Damian Richardson</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Democratic Party of Wisconsin</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,44 +392,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Department of Energy</t>
+          <t>Department of Education</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caroline Grey</t>
+          <t>David Holmes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Rebellion Defense</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Department of Health and Human Services</t>
+          <t>Department of Energy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clara Pratte</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Caroline Grey</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -441,39 +441,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development</t>
+          <t>Department of Health and Human Services</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Analysse Escobar</t>
+          <t>Kevin O’Connor</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>GW Medical Faculty Associates</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development</t>
+          <t>Department of Health and Human Services</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mikayla Ferrell</t>
+          <t>Clara Pratte</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pennsylvania Democratic Party</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -485,34 +495,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Department of Justice</t>
+          <t>Department of Health and Human Services</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Theresa Bradley</t>
+          <t>Rochelle Walensky</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Massachusetts General Hospital</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Department of the Interior</t>
+          <t>Department of Homeland Security</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maggie Thompson</t>
+          <t>John Bivona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -529,34 +539,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Department of the Treasury</t>
+          <t>Department of Homeland Security</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>William Doerrer</t>
+          <t>Kevin Munoz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Latino Decisions</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Department of Transportation</t>
+          <t>Department of Housing and Urban Development</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Allie Panther</t>
+          <t>Analysse Escobar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -573,12 +583,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Housing and Urban Development</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sinceré Harris</t>
+          <t>Mikayla Ferrell</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -595,12 +605,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Office of Personnel Management</t>
+          <t>Department of Justice</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jason Tengco</t>
+          <t>Theresa Bradley</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -617,20 +627,245 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Department of the Interior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maggie Thompson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Department of the Treasury</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>William Doerrer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Department of Transportation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Allie Panther</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Environmental Protection Agency</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sinceré Harris</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pennsylvania Democratic Party</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Executive Office of the President, Management and Administration</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rob Flaherty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Executive Office of the President, Management and Administration</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dan Jacobson</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Arnold &amp; Porter Kaye Scholer LLP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Executive Office of the President, Management and Administration</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kevin O’Connor</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GW Medical Faculty Associates</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Intelligence Community</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Avril Haines</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Columbia University</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>International Development</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zeppa Kreager</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Office of Personnel Management</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jason Tengco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>United States Department of Agriculture</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Lexi Coburn</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>North Carolina Democratic Party</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +389,405 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Council on Environmental Quality</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nikki Buffa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Latham &amp; Watkins, LLP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cynthia Aragon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arizona House of Representatives</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Scott Arceneaux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Arceneaux Strategies, LLC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kelly Magsamen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Center for American Progress</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jim Brown</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claudia Chavez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kristin Avery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Democratic National Committee</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>José Cordero</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>University of Georgia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Department of Housing and Urban Development</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gail Laster</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>National Credit Union Administration (Retired)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Taylor Barnes Lord</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Democratic National Committee</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brian McKeon</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sam Salk</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Presidential Inaugural Committee</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Executive Office of the President, Management and Administration</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jenny Gao</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bessemer Venture Partners</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Intelligence Community</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Austin Lin</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chan Zuckerberg Initiative</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Small Business Administration</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Scott Harriford</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>United States Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Justo Robles</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Georgia Coordinated Campaign</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>United States Digital Service</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cyrus Shahpar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/newnames.xlsx
+++ b/output/newnames.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,66 +392,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Council on Environmental Quality</t>
+          <t>Arts and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikki Buffa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Jennifer Chang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Latham &amp; Watkins, LLP</t>
+          <t>WolfBrown</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Department of Commerce</t>
+          <t>Department of Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cynthia Aragon</t>
+          <t>Jim Brown</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arizona House of Representatives</t>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Department of Defense</t>
+          <t>Department of Justice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scott Arceneaux</t>
+          <t>Shomari Figures</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arceneaux Strategies, LLC</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -463,326 +458,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Department of Defense</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kelly Magsamen</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Michael Grant</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Department of Education</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jim Brown</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Department of Education</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Claudia Chavez</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Biden for President</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Department of Health and Human Services</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Kristin Avery</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Democratic National Committee</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Department of Health and Human Services</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>José Cordero</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>University of Georgia</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Department of Housing and Urban Development</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gail Laster</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>National Credit Union Administration (Retired)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Department of Labor</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Taylor Barnes Lord</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Democratic National Committee</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Department of State</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Brian McKeon</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Self-employed</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Department of State</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sam Salk</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Presidential Inaugural Committee</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Executive Office of the President, Management and Administration</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Jenny Gao</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Bessemer Venture Partners</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Intelligence Community</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Austin Lin</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Chan Zuckerberg Initiative</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Small Business Administration</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Scott Harriford</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Biden for President</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>United States Department of Agriculture</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Justo Robles</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Georgia Coordinated Campaign</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Transition — PT Fund, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>United States Digital Service</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Cyrus Shahpar</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>Volunteer</t>
         </is>
